--- a/web/device.xlsx
+++ b/web/device.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Leonidax/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Leonidax/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>传感器批次号</t>
     <rPh sb="0" eb="1">
@@ -120,6 +120,112 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gsensor_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gsensor_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pcb_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hospital</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>office</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bed_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sn_tip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TME1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:21:4f:c4:4c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福州总医院</t>
+    <rPh sb="0" eb="1">
+      <t>fu'zhou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zong'yi'y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心内科</t>
+    <rPh sb="0" eb="1">
+      <t>xi'nei'ke</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵经理</t>
+    <rPh sb="0" eb="1">
+      <t>zhao'jing'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈经理</t>
+    <rPh sb="0" eb="1">
+      <t>chen</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>jing'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TME2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010793759209428882691126189385</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -162,13 +268,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -450,90 +559,135 @@
   <dimension ref="A1:J424"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
     <col min="6" max="6" width="17.83203125" customWidth="1"/>
     <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="9" max="9" width="32.33203125" customWidth="1"/>
+    <col min="9" max="9" width="33.1640625" customWidth="1"/>
     <col min="10" max="10" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+    <row r="3" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2">
+      <c r="F3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2">
         <v>433</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>

--- a/web/device.xlsx
+++ b/web/device.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Leonidax/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Leonidax/VirtualBox VMs/DriverD/PHP/SN/web/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -66,10 +66,6 @@
     <rPh sb="9" eb="10">
       <t>di'zhi</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WIFI/433</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -226,6 +222,13 @@
     <t>010793759209428882691126189385</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>类型WIFI/433</t>
+    <rPh sb="0" eb="1">
+      <t>lei'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -285,6 +288,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -336,7 +407,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -371,7 +442,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -559,135 +630,136 @@
   <dimension ref="A1:J424"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="9" max="9" width="33.1640625" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="33.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="8" max="8" width="17.83203125" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>16</v>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
+      <c r="G3" s="2" t="s">
+        <v>25</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
+      <c r="H3" s="2" t="s">
+        <v>26</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
+      <c r="I3" s="2" t="s">
+        <v>27</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>9</v>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>10</v>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>433</v>
       </c>
-      <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
